--- a/alexres.xlsx
+++ b/alexres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f610d722fcdb98/Develop/Smart_Fishery/graphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Develop\Smart_Fishery\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{A620500E-94A2-433E-9EF5-B33EC4D2CFEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{811D6337-E2A5-477E-BBC0-E52EEB88A157}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{A620500E-94A2-433E-9EF5-B33EC4D2CFEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{32F704E9-838F-4832-9E78-206E66B3F243}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="11985" xr2:uid="{10280F3B-AAAB-47B0-8C93-4CA08742B3FA}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Res</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D469DD76-96CD-47E8-946C-2D309567A087}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +431,12 @@
         <f>AVERAGE(B1:F1)</f>
         <v>98.595999999999989</v>
       </c>
+      <c r="H1">
+        <f>STDEV(B1:F1)</f>
+        <v>0.46570376850526096</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,6 +458,38 @@
       <c r="G2">
         <f>AVERAGE(B2:F2)</f>
         <v>96.852000000000004</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" si="0">STDEV(B2:F2)</f>
+        <v>0.82817268730621174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>98.55</v>
+      </c>
+      <c r="C3">
+        <v>97.99</v>
+      </c>
+      <c r="D3">
+        <v>93.53</v>
+      </c>
+      <c r="E3">
+        <v>96.99</v>
+      </c>
+      <c r="F3">
+        <v>98.55</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>97.122</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>2.1066371305946339</v>
       </c>
     </row>
   </sheetData>
